--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW5.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW5.xlsx
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.915650000693</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>0.641816666602</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="C208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="D208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="E208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="F208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="G208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="H208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="I208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="K208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
       <c r="L208" t="n">
-        <v>2.7992249995544993</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="D214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="I214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="J214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
       <c r="L214" t="n">
-        <v>2.488199999604</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -8425,37 +8425,37 @@
         <v>219.0</v>
       </c>
       <c r="B220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="D220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="E220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="G220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="H220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="I220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="J220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="K220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
       <c r="L220" t="n">
-        <v>0.6059666663726666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
@@ -9185,37 +9185,37 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="D240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="E240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="F240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="G240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="H240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="I240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="J240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="K240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
       <c r="L240" t="n">
-        <v>1.064202631254</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
@@ -9223,37 +9223,37 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="E241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="G241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="H241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="I241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="J241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="K241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
       <c r="L241" t="n">
-        <v>0.347494736736</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="C245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="D245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="E245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="F245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="G245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="H245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="I245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="J245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="K245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
       <c r="L245" t="n">
-        <v>2.1935605256460002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="246">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="C250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="D250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="E250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="F250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="G250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="H250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="I250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="J250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="K250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
       <c r="L250" t="n">
-        <v>4.300247367108001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="251">
@@ -10553,37 +10553,37 @@
         <v>275.0</v>
       </c>
       <c r="B276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="C276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="D276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="E276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="F276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="G276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="H276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="I276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="J276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="K276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
       <c r="L276" t="n">
-        <v>0.606399999968</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="277">
@@ -14733,37 +14733,37 @@
         <v>385.0</v>
       </c>
       <c r="B386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="C386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="D386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="E386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="F386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="G386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="H386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="I386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="J386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="K386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
       <c r="L386" t="n">
-        <v>1.8350000006</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="387">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="C400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="D400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="E400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="F400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="G400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="H400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="I400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="J400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="K400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
       <c r="L400" t="n">
-        <v>4.914828948645</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="401">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="C428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="D428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="E428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="F428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="G428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="H428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="I428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="J428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="K428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
       <c r="L428" t="n">
-        <v>8.537025000000002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>0.705857894448</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="D527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="E527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="H527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="I527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="J527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="K527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
       <c r="L527" t="n">
-        <v>0.584000000128</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>0.292000000064</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>6.060841666346832</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -21801,37 +21801,37 @@
         <v>571.0</v>
       </c>
       <c r="B572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="C572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="D572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="E572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="F572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="G572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="H572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="I572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="J572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="K572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
       <c r="L572" t="n">
-        <v>1.7914473692500001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="573">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>1.7370592106175002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
